--- a/data/Recomendación_1000000000.xlsx
+++ b/data/Recomendación_1000000000.xlsx
@@ -438,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,45 +449,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -499,21 +493,18 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -528,24 +519,21 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -557,24 +545,21 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -586,22 +571,33 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/Recomendación_1000000000.xlsx
+++ b/data/Recomendación_1000000000.xlsx
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +121,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF475EA6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,12 +152,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,28 +477,28 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
